--- a/suivi_traj_vitetaccel.xlsx
+++ b/suivi_traj_vitetaccel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexb\Downloads\Pieces_Robot_Fanuc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexb\Desktop\GMRobot_Fanuc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24024ED-7A51-4526-AC87-44086D68FE17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F9B35D-53B3-4306-8B48-8C8EEAB59E5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4DB6B0D9-F934-4ED1-A037-40692DE15E5F}"/>
   </bookViews>
@@ -620,127 +620,127 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>-0.04</c:v>
+                  <c:v>-4.1887902047863914E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-3.6999999999999998E-2</c:v>
+                  <c:v>-3.8746309394274117E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-8.0000000000000002E-3</c:v>
+                  <c:v>-8.3775804095727823E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-5.1999999999999998E-2</c:v>
+                  <c:v>-5.4454272662223082E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-9.6000000000000002E-2</c:v>
+                  <c:v>-1.0053096491487338E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.13900000000000001</c:v>
+                  <c:v>-1.4556045961632709E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.183</c:v>
+                  <c:v>-1.9163715186897738E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.22600000000000001</c:v>
+                  <c:v>-2.3666664657043108E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.26900000000000002</c:v>
+                  <c:v>-2.8169614127188481E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.311</c:v>
+                  <c:v>-3.2567843842214186E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.35399999999999998</c:v>
+                  <c:v>-3.7070793312359553E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.39600000000000002</c:v>
+                  <c:v>-4.1469023027385275E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.438</c:v>
+                  <c:v>-4.5867252742410977E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.48099999999999998</c:v>
+                  <c:v>-5.037020221255635E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.52200000000000002</c:v>
+                  <c:v>-5.4663712172462402E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.56399999999999995</c:v>
+                  <c:v>-5.9061941887488111E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.60599999999999998</c:v>
+                  <c:v>-6.3460171602513812E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.64800000000000002</c:v>
+                  <c:v>-6.7858401317539535E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.68899999999999995</c:v>
+                  <c:v>-7.215191127744558E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.73099999999999998</c:v>
+                  <c:v>-7.6550140992471302E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.77200000000000002</c:v>
+                  <c:v>-8.0843650952377347E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.81299999999999994</c:v>
+                  <c:v>-8.5137160912283377E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.85499999999999998</c:v>
+                  <c:v>-8.95353906273091E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.89600000000000002</c:v>
+                  <c:v>-9.3828900587215144E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.93700000000000006</c:v>
+                  <c:v>-9.8122410547121217E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-0.97799999999999998</c:v>
+                  <c:v>-0.10241592050702725</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-1.0189999999999999</c:v>
+                  <c:v>-0.10670943046693331</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-1.06</c:v>
+                  <c:v>-0.11100294042683936</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-1.101</c:v>
+                  <c:v>-0.11529645038674539</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-1.1419999999999999</c:v>
+                  <c:v>-0.11958996034665145</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-1.1830000000000001</c:v>
+                  <c:v>-0.12388347030655751</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-1.2230000000000001</c:v>
+                  <c:v>-0.1280722605113439</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-1.264</c:v>
+                  <c:v>-0.13236577047124995</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-1.3049999999999999</c:v>
+                  <c:v>-0.13665928043115599</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-1.3460000000000001</c:v>
+                  <c:v>-0.14095279039106204</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-1.3859999999999999</c:v>
+                  <c:v>-0.14514158059584845</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-1.427</c:v>
+                  <c:v>-0.14943509055575449</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-1.4670000000000001</c:v>
+                  <c:v>-0.1536238807605409</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-1.508</c:v>
+                  <c:v>-0.15791739072044694</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-1.548</c:v>
+                  <c:v>-0.16210618092523335</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-0.79300000000000004</c:v>
+                  <c:v>-8.3042765809890201E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -919,127 +919,127 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>-2.2189999999999999</c:v>
+                  <c:v>-0.23237313661052503</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-4.3860000000000001</c:v>
+                  <c:v>-0.45930084595482779</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-4.3310000000000004</c:v>
+                  <c:v>-0.45354125942324652</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-4.2770000000000001</c:v>
+                  <c:v>-0.44788639264678487</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-4.2240000000000002</c:v>
+                  <c:v>-0.44233624562544288</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-4.1719999999999997</c:v>
+                  <c:v>-0.4368908183592205</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-4.1210000000000004</c:v>
+                  <c:v>-0.43155011084811795</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-4.07</c:v>
+                  <c:v>-0.42620940333701529</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-4.0199999999999996</c:v>
+                  <c:v>-0.42097341558103218</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-3.9710000000000001</c:v>
+                  <c:v>-0.41584214758016896</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-3.9220000000000002</c:v>
+                  <c:v>-0.41071087957930563</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-3.8740000000000001</c:v>
+                  <c:v>-0.40568433133356196</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-3.8260000000000001</c:v>
+                  <c:v>-0.4006577830878183</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-3.7789999999999999</c:v>
+                  <c:v>-0.39573595459719429</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-3.7330000000000001</c:v>
+                  <c:v>-0.39091884586168996</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-3.6869999999999998</c:v>
+                  <c:v>-0.38610173712618556</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-3.641</c:v>
+                  <c:v>-0.38128462839068128</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-3.5960000000000001</c:v>
+                  <c:v>-0.37657223941029655</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-3.5510000000000002</c:v>
+                  <c:v>-0.37185985042991188</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-3.5070000000000001</c:v>
+                  <c:v>-0.36725218120464681</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-3.4620000000000002</c:v>
+                  <c:v>-0.36253979222426214</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-3.419</c:v>
+                  <c:v>-0.35803684275411674</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-3.375</c:v>
+                  <c:v>-0.35342917352885173</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-3.3319999999999999</c:v>
+                  <c:v>-0.34892622405870632</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-3.2890000000000001</c:v>
+                  <c:v>-0.34442327458856098</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-3.246</c:v>
+                  <c:v>-0.33992032511841563</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-3.2029999999999998</c:v>
+                  <c:v>-0.33541737564827023</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-3.161</c:v>
+                  <c:v>-0.33101914593324455</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-3.1179999999999999</c:v>
+                  <c:v>-0.32651619646309915</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-3.0760000000000001</c:v>
+                  <c:v>-0.32211796674807341</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-3.0339999999999998</c:v>
+                  <c:v>-0.31771973703304768</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-2.9929999999999999</c:v>
+                  <c:v>-0.31342622707314166</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-2.9510000000000001</c:v>
+                  <c:v>-0.30902799735811598</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-2.9089999999999998</c:v>
+                  <c:v>-0.3046297676430903</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-2.8679999999999999</c:v>
+                  <c:v>-0.30033625768318417</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-2.8260000000000001</c:v>
+                  <c:v>-0.29593802796815855</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-2.7850000000000001</c:v>
+                  <c:v>-0.29164451800825247</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-2.7429999999999999</c:v>
+                  <c:v>-0.28724628829322679</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-2.702</c:v>
+                  <c:v>-0.28295277833332066</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-2.661</c:v>
+                  <c:v>-0.27865926837341465</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-1.3109999999999999</c:v>
+                  <c:v>-0.13728759896187395</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3987,7 +3987,7 @@
   <dimension ref="A1:V42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S22" sqref="S22"/>
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4098,16 +4098,16 @@
         <v>-1.3457963267948965</v>
       </c>
       <c r="T2">
-        <f>-G2</f>
+        <f>-G2*2*PI()/60</f>
         <v>0</v>
       </c>
       <c r="U2">
-        <f>-I2</f>
-        <v>-0.04</v>
+        <f>-I2*2*PI()/60</f>
+        <v>-4.1887902047863914E-3</v>
       </c>
       <c r="V2">
-        <f>-K2</f>
-        <v>-2.2189999999999999</v>
+        <f>-K2*2*PI()/60</f>
+        <v>-0.23237313661052503</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -4160,16 +4160,16 @@
         <v>-1.3577963267948965</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:T42" si="3">-G3</f>
+        <f t="shared" ref="T3:T42" si="3">-G3*2*PI()/60</f>
         <v>0</v>
       </c>
       <c r="U3">
-        <f t="shared" ref="U3:U42" si="4">-I3</f>
-        <v>-3.6999999999999998E-2</v>
+        <f t="shared" ref="U3:U42" si="4">-I3*2*PI()/60</f>
+        <v>-3.8746309394274117E-3</v>
       </c>
       <c r="V3">
-        <f t="shared" ref="V3:V42" si="5">-K3</f>
-        <v>-4.3860000000000001</v>
+        <f t="shared" ref="V3:V42" si="5">-K3*2*PI()/60</f>
+        <v>-0.45930084595482779</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
@@ -4227,11 +4227,11 @@
       </c>
       <c r="U4">
         <f t="shared" si="4"/>
-        <v>-8.0000000000000002E-3</v>
+        <v>-8.3775804095727823E-4</v>
       </c>
       <c r="V4">
         <f t="shared" si="5"/>
-        <v>-4.3310000000000004</v>
+        <v>-0.45354125942324652</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
@@ -4289,11 +4289,11 @@
       </c>
       <c r="U5">
         <f t="shared" si="4"/>
-        <v>-5.1999999999999998E-2</v>
+        <v>-5.4454272662223082E-3</v>
       </c>
       <c r="V5">
         <f t="shared" si="5"/>
-        <v>-4.2770000000000001</v>
+        <v>-0.44788639264678487</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
@@ -4351,11 +4351,11 @@
       </c>
       <c r="U6">
         <f t="shared" si="4"/>
-        <v>-9.6000000000000002E-2</v>
+        <v>-1.0053096491487338E-2</v>
       </c>
       <c r="V6">
         <f t="shared" si="5"/>
-        <v>-4.2240000000000002</v>
+        <v>-0.44233624562544288</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
@@ -4413,11 +4413,11 @@
       </c>
       <c r="U7">
         <f t="shared" si="4"/>
-        <v>-0.13900000000000001</v>
+        <v>-1.4556045961632709E-2</v>
       </c>
       <c r="V7">
         <f t="shared" si="5"/>
-        <v>-4.1719999999999997</v>
+        <v>-0.4368908183592205</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -4475,11 +4475,11 @@
       </c>
       <c r="U8">
         <f t="shared" si="4"/>
-        <v>-0.183</v>
+        <v>-1.9163715186897738E-2</v>
       </c>
       <c r="V8">
         <f t="shared" si="5"/>
-        <v>-4.1210000000000004</v>
+        <v>-0.43155011084811795</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
@@ -4537,11 +4537,11 @@
       </c>
       <c r="U9">
         <f t="shared" si="4"/>
-        <v>-0.22600000000000001</v>
+        <v>-2.3666664657043108E-2</v>
       </c>
       <c r="V9">
         <f t="shared" si="5"/>
-        <v>-4.07</v>
+        <v>-0.42620940333701529</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
@@ -4599,11 +4599,11 @@
       </c>
       <c r="U10">
         <f t="shared" si="4"/>
-        <v>-0.26900000000000002</v>
+        <v>-2.8169614127188481E-2</v>
       </c>
       <c r="V10">
         <f t="shared" si="5"/>
-        <v>-4.0199999999999996</v>
+        <v>-0.42097341558103218</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
@@ -4661,11 +4661,11 @@
       </c>
       <c r="U11">
         <f t="shared" si="4"/>
-        <v>-0.311</v>
+        <v>-3.2567843842214186E-2</v>
       </c>
       <c r="V11">
         <f t="shared" si="5"/>
-        <v>-3.9710000000000001</v>
+        <v>-0.41584214758016896</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -4723,11 +4723,11 @@
       </c>
       <c r="U12">
         <f t="shared" si="4"/>
-        <v>-0.35399999999999998</v>
+        <v>-3.7070793312359553E-2</v>
       </c>
       <c r="V12">
         <f t="shared" si="5"/>
-        <v>-3.9220000000000002</v>
+        <v>-0.41071087957930563</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
@@ -4785,11 +4785,11 @@
       </c>
       <c r="U13">
         <f t="shared" si="4"/>
-        <v>-0.39600000000000002</v>
+        <v>-4.1469023027385275E-2</v>
       </c>
       <c r="V13">
         <f t="shared" si="5"/>
-        <v>-3.8740000000000001</v>
+        <v>-0.40568433133356196</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
@@ -4847,11 +4847,11 @@
       </c>
       <c r="U14">
         <f t="shared" si="4"/>
-        <v>-0.438</v>
+        <v>-4.5867252742410977E-2</v>
       </c>
       <c r="V14">
         <f t="shared" si="5"/>
-        <v>-3.8260000000000001</v>
+        <v>-0.4006577830878183</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
@@ -4909,11 +4909,11 @@
       </c>
       <c r="U15">
         <f t="shared" si="4"/>
-        <v>-0.48099999999999998</v>
+        <v>-5.037020221255635E-2</v>
       </c>
       <c r="V15">
         <f t="shared" si="5"/>
-        <v>-3.7789999999999999</v>
+        <v>-0.39573595459719429</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
@@ -4971,11 +4971,11 @@
       </c>
       <c r="U16">
         <f t="shared" si="4"/>
-        <v>-0.52200000000000002</v>
+        <v>-5.4663712172462402E-2</v>
       </c>
       <c r="V16">
         <f t="shared" si="5"/>
-        <v>-3.7330000000000001</v>
+        <v>-0.39091884586168996</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
@@ -5033,11 +5033,11 @@
       </c>
       <c r="U17">
         <f t="shared" si="4"/>
-        <v>-0.56399999999999995</v>
+        <v>-5.9061941887488111E-2</v>
       </c>
       <c r="V17">
         <f t="shared" si="5"/>
-        <v>-3.6869999999999998</v>
+        <v>-0.38610173712618556</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
@@ -5095,11 +5095,11 @@
       </c>
       <c r="U18">
         <f t="shared" si="4"/>
-        <v>-0.60599999999999998</v>
+        <v>-6.3460171602513812E-2</v>
       </c>
       <c r="V18">
         <f t="shared" si="5"/>
-        <v>-3.641</v>
+        <v>-0.38128462839068128</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
@@ -5157,11 +5157,11 @@
       </c>
       <c r="U19">
         <f t="shared" si="4"/>
-        <v>-0.64800000000000002</v>
+        <v>-6.7858401317539535E-2</v>
       </c>
       <c r="V19">
         <f t="shared" si="5"/>
-        <v>-3.5960000000000001</v>
+        <v>-0.37657223941029655</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
@@ -5219,11 +5219,11 @@
       </c>
       <c r="U20">
         <f t="shared" si="4"/>
-        <v>-0.68899999999999995</v>
+        <v>-7.215191127744558E-2</v>
       </c>
       <c r="V20">
         <f t="shared" si="5"/>
-        <v>-3.5510000000000002</v>
+        <v>-0.37185985042991188</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
@@ -5281,11 +5281,11 @@
       </c>
       <c r="U21">
         <f t="shared" si="4"/>
-        <v>-0.73099999999999998</v>
+        <v>-7.6550140992471302E-2</v>
       </c>
       <c r="V21">
         <f t="shared" si="5"/>
-        <v>-3.5070000000000001</v>
+        <v>-0.36725218120464681</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
@@ -5343,11 +5343,11 @@
       </c>
       <c r="U22">
         <f t="shared" si="4"/>
-        <v>-0.77200000000000002</v>
+        <v>-8.0843650952377347E-2</v>
       </c>
       <c r="V22">
         <f t="shared" si="5"/>
-        <v>-3.4620000000000002</v>
+        <v>-0.36253979222426214</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
@@ -5405,11 +5405,11 @@
       </c>
       <c r="U23">
         <f t="shared" si="4"/>
-        <v>-0.81299999999999994</v>
+        <v>-8.5137160912283377E-2</v>
       </c>
       <c r="V23">
         <f t="shared" si="5"/>
-        <v>-3.419</v>
+        <v>-0.35803684275411674</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
@@ -5467,11 +5467,11 @@
       </c>
       <c r="U24">
         <f t="shared" si="4"/>
-        <v>-0.85499999999999998</v>
+        <v>-8.95353906273091E-2</v>
       </c>
       <c r="V24">
         <f t="shared" si="5"/>
-        <v>-3.375</v>
+        <v>-0.35342917352885173</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
@@ -5529,11 +5529,11 @@
       </c>
       <c r="U25">
         <f t="shared" si="4"/>
-        <v>-0.89600000000000002</v>
+        <v>-9.3828900587215144E-2</v>
       </c>
       <c r="V25">
         <f t="shared" si="5"/>
-        <v>-3.3319999999999999</v>
+        <v>-0.34892622405870632</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
@@ -5591,11 +5591,11 @@
       </c>
       <c r="U26">
         <f t="shared" si="4"/>
-        <v>-0.93700000000000006</v>
+        <v>-9.8122410547121217E-2</v>
       </c>
       <c r="V26">
         <f t="shared" si="5"/>
-        <v>-3.2890000000000001</v>
+        <v>-0.34442327458856098</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
@@ -5653,11 +5653,11 @@
       </c>
       <c r="U27">
         <f t="shared" si="4"/>
-        <v>-0.97799999999999998</v>
+        <v>-0.10241592050702725</v>
       </c>
       <c r="V27">
         <f t="shared" si="5"/>
-        <v>-3.246</v>
+        <v>-0.33992032511841563</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
@@ -5715,11 +5715,11 @@
       </c>
       <c r="U28">
         <f t="shared" si="4"/>
-        <v>-1.0189999999999999</v>
+        <v>-0.10670943046693331</v>
       </c>
       <c r="V28">
         <f t="shared" si="5"/>
-        <v>-3.2029999999999998</v>
+        <v>-0.33541737564827023</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
@@ -5777,11 +5777,11 @@
       </c>
       <c r="U29">
         <f t="shared" si="4"/>
-        <v>-1.06</v>
+        <v>-0.11100294042683936</v>
       </c>
       <c r="V29">
         <f t="shared" si="5"/>
-        <v>-3.161</v>
+        <v>-0.33101914593324455</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
@@ -5839,11 +5839,11 @@
       </c>
       <c r="U30">
         <f t="shared" si="4"/>
-        <v>-1.101</v>
+        <v>-0.11529645038674539</v>
       </c>
       <c r="V30">
         <f t="shared" si="5"/>
-        <v>-3.1179999999999999</v>
+        <v>-0.32651619646309915</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
@@ -5901,11 +5901,11 @@
       </c>
       <c r="U31">
         <f t="shared" si="4"/>
-        <v>-1.1419999999999999</v>
+        <v>-0.11958996034665145</v>
       </c>
       <c r="V31">
         <f t="shared" si="5"/>
-        <v>-3.0760000000000001</v>
+        <v>-0.32211796674807341</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
@@ -5963,11 +5963,11 @@
       </c>
       <c r="U32">
         <f t="shared" si="4"/>
-        <v>-1.1830000000000001</v>
+        <v>-0.12388347030655751</v>
       </c>
       <c r="V32">
         <f t="shared" si="5"/>
-        <v>-3.0339999999999998</v>
+        <v>-0.31771973703304768</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
@@ -6025,11 +6025,11 @@
       </c>
       <c r="U33">
         <f t="shared" si="4"/>
-        <v>-1.2230000000000001</v>
+        <v>-0.1280722605113439</v>
       </c>
       <c r="V33">
         <f t="shared" si="5"/>
-        <v>-2.9929999999999999</v>
+        <v>-0.31342622707314166</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
@@ -6087,11 +6087,11 @@
       </c>
       <c r="U34">
         <f t="shared" si="4"/>
-        <v>-1.264</v>
+        <v>-0.13236577047124995</v>
       </c>
       <c r="V34">
         <f t="shared" si="5"/>
-        <v>-2.9510000000000001</v>
+        <v>-0.30902799735811598</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
@@ -6149,11 +6149,11 @@
       </c>
       <c r="U35">
         <f t="shared" si="4"/>
-        <v>-1.3049999999999999</v>
+        <v>-0.13665928043115599</v>
       </c>
       <c r="V35">
         <f t="shared" si="5"/>
-        <v>-2.9089999999999998</v>
+        <v>-0.3046297676430903</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
@@ -6211,11 +6211,11 @@
       </c>
       <c r="U36">
         <f t="shared" si="4"/>
-        <v>-1.3460000000000001</v>
+        <v>-0.14095279039106204</v>
       </c>
       <c r="V36">
         <f t="shared" si="5"/>
-        <v>-2.8679999999999999</v>
+        <v>-0.30033625768318417</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.25">
@@ -6273,11 +6273,11 @@
       </c>
       <c r="U37">
         <f t="shared" si="4"/>
-        <v>-1.3859999999999999</v>
+        <v>-0.14514158059584845</v>
       </c>
       <c r="V37">
         <f t="shared" si="5"/>
-        <v>-2.8260000000000001</v>
+        <v>-0.29593802796815855</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
@@ -6335,11 +6335,11 @@
       </c>
       <c r="U38">
         <f t="shared" si="4"/>
-        <v>-1.427</v>
+        <v>-0.14943509055575449</v>
       </c>
       <c r="V38">
         <f t="shared" si="5"/>
-        <v>-2.7850000000000001</v>
+        <v>-0.29164451800825247</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
@@ -6397,11 +6397,11 @@
       </c>
       <c r="U39">
         <f t="shared" si="4"/>
-        <v>-1.4670000000000001</v>
+        <v>-0.1536238807605409</v>
       </c>
       <c r="V39">
         <f t="shared" si="5"/>
-        <v>-2.7429999999999999</v>
+        <v>-0.28724628829322679</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
@@ -6459,11 +6459,11 @@
       </c>
       <c r="U40">
         <f t="shared" si="4"/>
-        <v>-1.508</v>
+        <v>-0.15791739072044694</v>
       </c>
       <c r="V40">
         <f t="shared" si="5"/>
-        <v>-2.702</v>
+        <v>-0.28295277833332066</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.25">
@@ -6521,11 +6521,11 @@
       </c>
       <c r="U41">
         <f t="shared" si="4"/>
-        <v>-1.548</v>
+        <v>-0.16210618092523335</v>
       </c>
       <c r="V41">
         <f t="shared" si="5"/>
-        <v>-2.661</v>
+        <v>-0.27865926837341465</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
@@ -6583,11 +6583,11 @@
       </c>
       <c r="U42">
         <f t="shared" si="4"/>
-        <v>-0.79300000000000004</v>
+        <v>-8.3042765809890201E-2</v>
       </c>
       <c r="V42">
         <f t="shared" si="5"/>
-        <v>-1.3109999999999999</v>
+        <v>-0.13728759896187395</v>
       </c>
     </row>
   </sheetData>
